--- a/LLM items corr full v1.0.xlsx
+++ b/LLM items corr full v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\fdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26284C8E-5AE2-45F4-B899-2EEACCF1FB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25FFD1D-4D4B-4A9A-941B-612C07728B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3588" yWindow="1920" windowWidth="17280" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3154,9 +3154,6 @@
     <t>('препараты', 'нормализации', 'пищеварения', 'ЖКТ')</t>
   </si>
   <si>
-    <t>('витамины')</t>
-  </si>
-  <si>
     <t>('биологически', 'активные', 'добавки')</t>
   </si>
   <si>
@@ -3176,6 +3173,9 @@
   </si>
   <si>
     <t>[' телескопический телефонный держатель', ' автомобильный телефонный держатель с зарядкой', ' телефонный держатель для вентилятора', ' автомобильный телефонный держатель', ' телефонный держатель для лобового стекла', ' автомобильный телефонный держатель с зарядкой и креплением для телефона', ' автомобильный телефонный держатель с зарядкой', ' телефонный держатель для приборной панели и автомобильный телефонный держатель с зарядкой и креплением для телефона.']</t>
+  </si>
+  <si>
+    <t>('витамины',)</t>
   </si>
 </sst>
 </file>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="J297" sqref="J297"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="C528" sqref="C528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7993,7 +7993,7 @@
         <v>537</v>
       </c>
       <c r="E290" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -11284,7 +11284,7 @@
         <v>527</v>
       </c>
       <c r="C522" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="D522" t="s">
         <v>1032</v>
@@ -11298,7 +11298,7 @@
         <v>528</v>
       </c>
       <c r="C523" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D523" t="s">
         <v>1032</v>
@@ -11312,7 +11312,7 @@
         <v>529</v>
       </c>
       <c r="C524" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D524" t="s">
         <v>1032</v>
@@ -11326,7 +11326,7 @@
         <v>530</v>
       </c>
       <c r="C525" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D525" t="s">
         <v>1032</v>
@@ -11340,7 +11340,7 @@
         <v>531</v>
       </c>
       <c r="C526" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D526" t="s">
         <v>1032</v>
@@ -11354,7 +11354,7 @@
         <v>532</v>
       </c>
       <c r="C527" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D527" t="s">
         <v>1032</v>
@@ -11368,7 +11368,7 @@
         <v>533</v>
       </c>
       <c r="C528" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D528" t="s">
         <v>1032</v>
